--- a/medicine/Maladies infectieuses/Chorioméningite_lymphocytaire/Chorioméningite_lymphocytaire.xlsx
+++ b/medicine/Maladies infectieuses/Chorioméningite_lymphocytaire/Chorioméningite_lymphocytaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Choriom%C3%A9ningite_lymphocytaire</t>
+          <t>Chorioméningite_lymphocytaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chorioméningite lymphocytaire est une maladie virale causée par le virus de la chorioméningite lymphocytaire.
-Il s'agit d'un arenavirus porté par les rongeurs. La maladie a surtout été décrite aux États-Unis mais quelques cas ont été observés en France[1].
+Il s'agit d'un arenavirus porté par les rongeurs. La maladie a surtout été décrite aux États-Unis mais quelques cas ont été observés en France.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Choriom%C3%A9ningite_lymphocytaire</t>
+          <t>Chorioméningite_lymphocytaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie se présente sous forme d'une méningite : syndrome méningé fébrile avec céphalées, nausées, intolérance à la lumière. L'évolution est habituellement bénigne, avec des symptômes peu importants durant quelques semaines[2].
-L'atteinte du fœtus est plus grave, pouvant occasionner une microcéphalie, une atteinte oculaire, une hydrocéphalie[2]…
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie se présente sous forme d'une méningite : syndrome méningé fébrile avec céphalées, nausées, intolérance à la lumière. L'évolution est habituellement bénigne, avec des symptômes peu importants durant quelques semaines.
+L'atteinte du fœtus est plus grave, pouvant occasionner une microcéphalie, une atteinte oculaire, une hydrocéphalie…
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Choriom%C3%A9ningite_lymphocytaire</t>
+          <t>Chorioméningite_lymphocytaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La ponction lombaire montre un liquide cérébrospinal clair, comprenant de nombreux lymphocytes. Le diagnostic est fait soit par RT-PCR (détection d'ARN viral), soit par sérologie (détection des anticorps).
 </t>
